--- a/Bom/bom.xlsx
+++ b/Bom/bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20358"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Temp_hum_sensor_Atmega328\Bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA4080A-9027-4F2F-B0F6-4D791545151F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5E882D-C952-4DB8-8C21-C269FF5613E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -327,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,12 +505,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -701,27 +695,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1082,7 +1067,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="A14:E14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,296 +1079,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4">
         <v>1210</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2">
+      <c r="D5" s="4"/>
+      <c r="E5" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2">
+      <c r="D12" s="4"/>
+      <c r="E12" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6">
+      <c r="D14" s="4"/>
+      <c r="E14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2">
+      <c r="D18" s="4"/>
+      <c r="E18" s="3">
         <v>1</v>
       </c>
     </row>
